--- a/invoice_data.xlsx
+++ b/invoice_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,12 +433,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="49" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -472,32 +473,44 @@
           <t>Total Amount</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Company Name</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sample2bill company
-2134 address
-sample2bill 12345</t>
+          <t>default’ bill company
+21221 address
+default! 1225</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Orange1 ship company
+1221 address
+Orange1 212</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>09/06/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>56,535.00</t>
-        </is>
-      </c>
+          <t>448.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
